--- a/src/test/resources/testdataCMS/Login.xlsx
+++ b/src/test/resources/testdataCMS/Login.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FB366BD-A79D-43BA-B859-E91438BEDE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Codetru\Downloads\CitizensPOCAutomation2.0\CitizenPOCAutomation2.0\src\test\resources\testdataCMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDB764-7F6A-432D-8CB3-1F2E78D7C71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -45,44 +34,57 @@
     <t>loginFailWithEmailDoesNotExist</t>
   </si>
   <si>
+    <t>loginFailWithNullPassword</t>
+  </si>
+  <si>
+    <t>loginFailWithIncorrectPassword</t>
+  </si>
+  <si>
+    <t>loginSuccessWithCustomerAccount</t>
+  </si>
+  <si>
     <t>RockStar_K8</t>
   </si>
   <si>
-    <t>loginFailWithNullPassword</t>
-  </si>
-  <si>
-    <t>loginFailWithIncorrectPassword</t>
-  </si>
-  <si>
-    <t>Rock_Star_00</t>
-  </si>
-  <si>
-    <t>loginSuccessWithCustomerAccount</t>
+    <t>RockStar_K0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,19 +104,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -137,39 +144,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -202,26 +209,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -254,23 +244,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -332,6 +305,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -340,13 +320,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -411,104 +384,87 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7212345</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>7250883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="1">
         <v>7250883</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>7250883</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1">
+        <v>7250114</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7250114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:10">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>